--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -464,72 +464,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 36, 37]</t>
+          <t>[8, 11, 28, 29, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[28, 32, 33, 36, 37]</t>
+          <t>[28, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[32, 35, 36, 37]</t>
+          <t>[8, 11, 28, 32, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 29, 32]</t>
+          <t>[31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0, 38, 41]</t>
+          <t>[0, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 9, 11]</t>
+          <t>[6, 9, 11, 28, 32]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
@@ -548,72 +548,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[11, 27, 28, 32]</t>
+          <t>[9, 11, 27, 28, 32]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'c', 'V', 'V_Na(2)O8']</t>
+          <t>['Radius_M1', 'avg_Radius_M', 'c', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[6, 8, 11]</t>
+          <t>[8, 11, 26, 28, 29]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'avg_Radius_M']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'a', 'V', 'V_MO6']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 3, 41]</t>
+          <t>[4, 42]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[26, 28, 29]</t>
+          <t>[6, 8, 11, 28, 32]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['a', 'V', 'V_MO6']</t>
+          <t>['EN_M1', 'avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[31, 36, 37]</t>
+          <t>[17, 19, 20, 22]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'Min_BT', 'RT']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
@@ -1061,144 +1061,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[32, 36, 37]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[33, 36, 37]</t>
+          <t>[8, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[35, 36, 37]</t>
+          <t>[31, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['BT1', 'Min_BT', 'RT']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 13, 42]</t>
+          <t>[33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
+          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[29, 32]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['V_MO6', 'V_Na(2)O8']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11]</t>
+          <t>[26, 28, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['a', 'V', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[0, 3, 38, 41]</t>
+          <t>[11, 29, 32]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['avg_Radius_M', 'V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[6, 8, 9, 11, 28]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[31, 36, 37]</t>
+          <t>[0, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'Min_BT', 'RT']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8, 11, 32]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V_Na(2)O8']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9, 11, 28]</t>
+          <t>[8, 11, 28, 32]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Radius_M1', 'avg_Radius_M', 'V']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,156 +1260,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[31, 33, 36]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(3)O5', 'Min_BT']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[33, 35, 36, 37]</t>
+          <t>[28, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['V', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[6, 9, 11]</t>
+          <t>[31, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['V_Na(1)O6', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4, 42]</t>
+          <t>[17, 20, 32]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Entropy_M']</t>
+          <t>['EN_X1', 'Radius_X1', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[32, 33]</t>
+          <t>[0, 38, 41]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'V_Na(3)O5']</t>
+          <t>['Occu_6b', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[11, 32]</t>
+          <t>[6, 8, 9, 11]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V_Na(2)O8']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[8, 11]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[28, 32]</t>
+          <t>[28, 32, 33]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['V', 'V_Na(2)O8']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[11, 28, 32]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[0, 3, 41]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[17, 23]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['EN_X1', 'Valence_X1']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[28, 37]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['V', 'RT']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[8, 11, 28]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[26, 28]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['a', 'V']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[12, 14]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[17, 25]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['EN_X1', 'avg_Valence_X']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[19, 22]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,144 +1507,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[11, 28, 32, 36, 37]</t>
+          <t>[8, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[33, 35, 36, 37]</t>
+          <t>[26, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['a', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[26, 33]</t>
+          <t>[28, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['a', 'V_Na(3)O5']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[29, 32]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['c', 'V']</t>
+          <t>['V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[4, 42]</t>
+          <t>[3, 38, 41]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Entropy_M']</t>
+          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6, 8, 11]</t>
+          <t>[6, 9, 11]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'avg_Radius_M']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[31, 36, 37]</t>
+          <t>[11, 27, 28]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'Min_BT', 'RT']</t>
+          <t>['avg_Radius_M', 'c', 'V']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[27, 28, 33]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na']</t>
+          <t>['c', 'V', 'V_Na(3)O5']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[6, 8, 11]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['EN_M1', 'avg_EN_M', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[0, 3, 38]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[17, 20, 28]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['EN_X1', 'Radius_X1', 'V']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[31, 33, 36, 37]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['V_Na(1)O6', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[17, 19, 20]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[19, 22]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
@@ -1622,132 +1730,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 36, 37]</t>
+          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[28, 31, 33, 36, 37]</t>
+          <t>[8, 26, 28, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V', 'V_Na(1)O6', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'a', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[35, 36, 37]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['BT1', 'Min_BT', 'RT']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[26, 28, 33]</t>
+          <t>[28, 29, 32]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['a', 'V', 'V_Na(3)O5']</t>
+          <t>['V', 'V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[29, 32]</t>
+          <t>[8, 11, 26, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['V_MO6', 'V_Na(2)O8']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'a', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28]</t>
+          <t>[17, 19, 20, 22]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[8, 11, 26, 28]</t>
+          <t>[28, 31, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'a', 'V']</t>
+          <t>['V', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[28, 32, 33, 36, 37]</t>
+          <t>[0, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 38]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Entropy_6b']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0, 3, 41]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na', 'Entropy_Na']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
@@ -1785,168 +1893,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 32, 36, 37]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[33, 35, 36, 37]</t>
+          <t>[8, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[11, 28, 29, 32]</t>
+          <t>[26, 28, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8']</t>
+          <t>['a', 'V', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[6, 9, 11]</t>
+          <t>[31, 32, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[11, 28, 32, 36, 37]</t>
+          <t>[26, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['a', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[4, 42]</t>
+          <t>[8, 11, 28, 29, 32]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Entropy_M']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[31, 36, 37]</t>
+          <t>[6, 8, 9, 11]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[0, 3, 38]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3, 38]</t>
+          <t>[31, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['C_Na', 'Entropy_6b']</t>
+          <t>['V_Na(1)O6', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
@@ -1961,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,168 +2092,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 37]</t>
+          <t>[8, 11, 27, 28, 32, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'c', 'V', 'V_Na(2)O8', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[11, 32, 36, 37]</t>
+          <t>[8, 11, 27, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'c', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[32, 33, 36, 37]</t>
+          <t>[31, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['V_Na(1)O6', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[31, 35, 36, 37]</t>
+          <t>[11, 32, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_Radius_M', 'V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[8, 11, 29, 32]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V_MO6', 'V_Na(2)O8']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[38, 41]</t>
+          <t>[26, 28, 33, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Entropy_6b', 'Entropy_Na']</t>
+          <t>['a', 'V', 'V_Na(3)O5', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6, 9, 11]</t>
+          <t>[8, 11, 28, 29, 32]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 3, 41]</t>
+          <t>[0, 38, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_Na']</t>
+          <t>['Occu_6b', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[11, 27, 28, 32, 37]</t>
+          <t>[6, 9, 11, 28]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'c', 'V', 'V_Na(2)O8', 'RT']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M', 'V']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4, 42]</t>
+          <t>[1, 3, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Entropy_M']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[33, 35, 36, 37]</t>
+          <t>[6, 8, 11, 28]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'avg_Radius_M', 'V']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[0, 38]</t>
+          <t>[28, 32, 33, 37]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Entropy_6b']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1, 39, 41]</t>
+          <t>[8, 26, 28, 37]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['avg_EN_M', 'a', 'V', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[19, 22]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
@@ -2195,96 +2315,96 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[28, 32, 36, 37]</t>
+          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[33, 36, 37]</t>
+          <t>[28, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[35, 36, 37]</t>
+          <t>[26, 28, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['BT1', 'Min_BT', 'RT']</t>
+          <t>['a', 'V', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3, 38, 41]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11]</t>
+          <t>[31, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[11, 28, 29, 32]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[11, 29]</t>
+          <t>[3, 38, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V_MO6']</t>
+          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
@@ -2303,24 +2423,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8, 9, 11, 28]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 th" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 th" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 th" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 th" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 th" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 th" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 th" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 th" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 th" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 th" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1 th" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="5 th" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="6 th" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="7 th" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="8 th" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="9 th" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2 th" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3 th" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="4 th" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="0 th" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,15 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -431,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -618,7 +618,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -628,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,108 +651,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Valence_M1']</t>
+          <t>['avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[11, 28, 31, 32, 36, 37]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_Na(1)O6', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[31, 32, 33, 35, 36, 37]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 13, 42]</t>
+          <t>[6, 8, 9, 11, 32]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[26, 32, 33]</t>
+          <t>[31, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['a', 'V_Na(2)O8', 'V_Na(3)O5']</t>
+          <t>['V_Na(1)O6', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 38, 41]</t>
+          <t>[8, 9, 11, 28, 32]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[26, 28]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['a', 'V']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32]</t>
+          <t>[28, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
@@ -771,41 +771,113 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[26, 28, 32]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['a', 'V', 'V_Na(2)O8']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3, 26]</t>
+          <t>[33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['C_Na', 'a']</t>
+          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[11, 27, 28]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['avg_Radius_M', 'c', 'V']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[3, 38, 41]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[6, 12]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['EN_M1', 'Valence_M1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[38, 41]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Entropy_6b', 'Entropy_Na']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[12, 14]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[0, 38]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['Occu_6b', 'Entropy_6b']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[6, 12]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1028,7 +1100,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1227,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1474,7 +1546,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1697,7 +1769,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1860,7 +1932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2059,7 +2131,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2270,7 +2342,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2445,6 +2517,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1 th" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="5 th" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="6 th" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="7 th" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="8 th" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="9 th" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2 th" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="3 th" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="4 th" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="0 th" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 th" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 th" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 th" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 th" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 th" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 th" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 th" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 th" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 th" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 th" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -651,24 +651,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 36, 37]</t>
+          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[32, 33, 35, 36, 37]</t>
+          <t>[8, 11, 28, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
@@ -687,108 +687,108 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[31, 32, 33, 36, 37]</t>
+          <t>[17, 19, 20, 23, 25]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'Valence_X1', 'avg_Valence_X']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 38, 41]</t>
+          <t>[11, 28, 31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['avg_Radius_M', 'V', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28]</t>
+          <t>[0, 1, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V']</t>
+          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[27, 28, 32, 33, 36, 37]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['c', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 39, 41]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[17, 19, 20]</t>
+          <t>[27, 28, 37]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
+          <t>['c', 'V', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8, 9, 11, 28, 37]</t>
+          <t>[28, 29]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'RT']</t>
+          <t>['V', 'V_MO6']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[26, 28]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['a', 'V']</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 th" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 th" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 th" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 th" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 th" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 th" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 th" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 th" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 th" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 th" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1 th" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="5 th" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="6 th" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="7 th" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="8 th" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="9 th" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2 th" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3 th" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="4 th" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="0 th" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -651,24 +651,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
+          <t>[15, 16, 18, 21, 22, 24, 43]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['Occu_X1', 'Occu_X2', 'EN_X2', 'Radius_X2', 'avg_Radius_X', 'Valence_X2', 'Entropy_X']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 36, 37]</t>
+          <t>[33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
@@ -687,192 +687,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[17, 19, 20, 23, 25]</t>
+          <t>[0, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'Valence_X1', 'avg_Valence_X']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[11, 28, 31, 32, 33, 35, 36, 37]</t>
+          <t>[6, 9, 11]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 38, 41]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['avg_EN_M', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[27, 28, 37]</t>
+          <t>[8, 32]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['c', 'V', 'RT']</t>
+          <t>['avg_EN_M', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[28, 29]</t>
+          <t>[26, 28, 37]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['V', 'V_MO6']</t>
+          <t>['a', 'V', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Valence_M1']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[0, 38]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['Occu_6b', 'Entropy_6b']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32]</t>
+          <t>[1, 39, 41]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[31, 37]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['V_Na(1)O6', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[8, 28, 32]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['avg_EN_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[26, 28]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['a', 'V']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[11, 27]</t>
+          <t>[2, 40]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'c']</t>
+          <t>['Occu_36f', 'Entropy_36f']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Valence_M1']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,15 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -431,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -618,7 +618,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -651,144 +651,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 36, 37]</t>
+          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[32, 33, 35, 36, 37]</t>
+          <t>[17, 19, 20, 23, 25]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'Valence_X1', 'avg_Valence_X']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 13, 42]</t>
+          <t>[26, 28]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
+          <t>['a', 'V']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[31, 32, 33, 36, 37]</t>
+          <t>[8, 11, 28, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 38, 41]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28]</t>
+          <t>[11, 28, 31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V']</t>
+          <t>['avg_Radius_M', 'V', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[27, 28, 32, 33, 36, 37]</t>
+          <t>[27, 28, 37]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['c', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['c', 'V', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 39, 41]</t>
+          <t>[0, 1, 3, 38, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[17, 19, 20]</t>
+          <t>[1, 3, 39, 41]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
+          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8, 9, 11, 28, 37]</t>
+          <t>[28, 29]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'RT']</t>
+          <t>['V', 'V_MO6']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1100,7 +1100,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1299,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1546,7 +1546,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1769,7 +1769,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1932,7 +1932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2131,7 +2131,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2342,7 +2342,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2517,6 +2517,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,15 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -431,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -618,7 +618,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -651,96 +651,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28, 32, 36, 37]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'Valence_M1']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[17, 19, 20, 23, 25]</t>
+          <t>[8, 9, 11, 28, 32, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['EN_X1', 'avg_EN_X', 'Radius_X1', 'Valence_X1', 'avg_Valence_X']</t>
+          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[8, 11, 28, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 36, 37]</t>
+          <t>[31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 13, 42]</t>
+          <t>[6, 9, 11, 27, 28, 32]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M', 'c', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[11, 28, 31, 32, 33, 35, 36, 37]</t>
+          <t>[11, 31, 32, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_Radius_M', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[27, 28, 37]</t>
+          <t>[3, 38, 41]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['c', 'V', 'RT']</t>
+          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 38, 41]</t>
+          <t>[6, 8, 9, 11, 28, 32]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'Occu_18e', 'C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
@@ -759,60 +759,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[28, 29]</t>
+          <t>[9, 11, 26, 28]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['V', 'V_MO6']</t>
+          <t>['Radius_M1', 'avg_Radius_M', 'a', 'V']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[4, 42]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['avg_EN_X', 'avg_Radius_X']</t>
+          <t>['Occu_M1', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[0, 3, 38]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Valence_M1']</t>
+          <t>['Occu_6b', 'C_Na', 'Entropy_6b']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32]</t>
+          <t>[28, 29]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['V', 'V_MO6']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[26, 28]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['a', 'V']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1100,7 +1100,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1299,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1546,7 +1546,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1769,7 +1769,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1932,7 +1932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2131,7 +2131,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2342,7 +2342,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2517,6 +2517,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -651,156 +651,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[15, 16, 18, 19, 21, 22, 24, 43]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Valence_M1']</t>
+          <t>['Occu_X1', 'Occu_X2', 'EN_X2', 'avg_EN_X', 'Radius_X2', 'avg_Radius_X', 'Valence_X2', 'Entropy_X']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8, 9, 11, 28, 32, 36, 37]</t>
+          <t>[8, 11, 28, 29, 32, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 36, 37]</t>
+          <t>[8, 11, 28, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[31, 32, 33, 35, 36, 37]</t>
+          <t>[4, 5, 7, 10, 13, 42]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6, 9, 11, 27, 28, 32]</t>
+          <t>[9, 26]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M', 'c', 'V', 'V_Na(2)O8']</t>
+          <t>['Radius_M1', 'a']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[11, 31, 32, 33, 36, 37]</t>
+          <t>[6, 9, 11]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3, 38, 41]</t>
+          <t>[11, 27, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['C_Na', 'Entropy_6b', 'Entropy_Na']</t>
+          <t>['avg_Radius_M', 'c', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[6, 8, 9, 11, 28, 32]</t>
+          <t>[31, 32, 33, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M', 'V', 'V_Na(2)O8']</t>
+          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1, 3, 39, 41]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['Occu_18e', 'C_Na']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[9, 11, 26, 28]</t>
+          <t>[1, 39, 41]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Radius_M1', 'avg_Radius_M', 'a', 'V']</t>
+          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4, 42]</t>
+          <t>[26, 28, 29]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Entropy_M']</t>
+          <t>['a', 'V', 'V_MO6']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[0, 3, 38]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Occu_6b', 'C_Na', 'Entropy_6b']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[28, 29]</t>
+          <t>[6, 11, 28]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['V', 'V_MO6']</t>
+          <t>['EN_M1', 'avg_Radius_M', 'V']</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/NCORs.xlsx
@@ -651,156 +651,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[15, 16, 18, 19, 21, 22, 24, 43]</t>
+          <t>[33, 36, 37]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Occu_X1', 'Occu_X2', 'EN_X2', 'avg_EN_X', 'Radius_X2', 'avg_Radius_X', 'Valence_X2', 'Entropy_X']</t>
+          <t>['V_Na(3)O5', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 29, 32, 35, 36, 37]</t>
+          <t>[35, 36, 37]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_MO6', 'V_Na(2)O8', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['BT1', 'Min_BT', 'RT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[8, 11, 28, 32, 33, 35, 36, 37]</t>
+          <t>[6, 8, 9, 11]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['avg_EN_M', 'avg_Radius_M', 'V', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['EN_M1', 'avg_EN_M', 'Radius_M1', 'avg_Radius_M']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 13, 42]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Occu_M1', 'Occu_M2', 'EN_M2', 'Radius_M2', 'Valence_M2', 'Entropy_M']</t>
+          <t>['Occu_18e', 'C_Na']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[9, 26]</t>
+          <t>[4, 42]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Radius_M1', 'a']</t>
+          <t>['Occu_M1', 'Entropy_M']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6, 9, 11]</t>
+          <t>[32, 33]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['EN_M1', 'Radius_M1', 'avg_Radius_M']</t>
+          <t>['V_Na(2)O8', 'V_Na(3)O5']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[11, 27, 35, 36, 37]</t>
+          <t>[11, 32]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['avg_Radius_M', 'c', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['avg_Radius_M', 'V_Na(2)O8']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[31, 32, 33, 35, 36, 37]</t>
+          <t>[1, 39, 41]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['V_Na(1)O6', 'V_Na(2)O8', 'V_Na(3)O5', 'BT1', 'Min_BT', 'RT']</t>
+          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[17, 20, 28]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'C_Na']</t>
+          <t>['EN_X1', 'Radius_X1', 'V']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1, 39, 41]</t>
+          <t>[17, 19, 20]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Occu_18e', 'Entropy_18e', 'Entropy_Na']</t>
+          <t>['EN_X1', 'avg_EN_X', 'Radius_X1']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[26, 28, 29]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['a', 'V', 'V_MO6']</t>
+          <t>['Valence_M1', 'avg_Valence_M']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[12, 14]</t>
+          <t>[0, 3]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Valence_M1', 'avg_Valence_M']</t>
+          <t>['Occu_6b', 'C_Na']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[6, 11, 28]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['EN_M1', 'avg_Radius_M', 'V']</t>
+          <t>['avg_EN_X', 'avg_Radius_X']</t>
         </is>
       </c>
     </row>
